--- a/Registros/15-10-2025.xlsx
+++ b/Registros/15-10-2025.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="46">
   <si>
     <t>REGISTRO DE ASISTENCIA - SEMESTRAL - MAÑANA</t>
   </si>
@@ -70,6 +70,9 @@
     <t>CHUMPITAZ MORENO ADRIANO</t>
   </si>
   <si>
+    <t>11:12P.M.</t>
+  </si>
+  <si>
     <t>CONOPUMA ARENAZA PAOLA</t>
   </si>
   <si>
@@ -97,6 +100,9 @@
     <t>CURO GONZALES DENNIS</t>
   </si>
   <si>
+    <t>11:17P.M.</t>
+  </si>
+  <si>
     <t>REGISTRO DE ASISTENCIA - SABATINO - TARDE</t>
   </si>
   <si>
@@ -127,6 +133,9 @@
     <t/>
   </si>
   <si>
+    <t>11:18P.M.</t>
+  </si>
+  <si>
     <t>DANIELA CORDOVA</t>
   </si>
   <si>
@@ -134,6 +143,9 @@
   </si>
   <si>
     <t>MARIA LOPEZ</t>
+  </si>
+  <si>
+    <t>11:13P.M.</t>
   </si>
   <si>
     <t>PEDRO VILLALOBOS</t>
@@ -171,7 +183,7 @@
       <color rgb="FF9C0006"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,6 +210,11 @@
         <fgColor rgb="FF1F4E78"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD7EE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -218,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -239,6 +256,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -667,8 +687,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
@@ -746,8 +764,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>17</v>
@@ -787,8 +803,8 @@
       <c r="D17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>9</v>
+      <c r="E17" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -796,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>7</v>
@@ -813,7 +829,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>7</v>
@@ -825,11 +841,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -858,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>14</v>
@@ -875,7 +889,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>14</v>
@@ -892,7 +906,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>14</v>
@@ -904,11 +918,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -937,7 +949,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>7</v>
@@ -954,7 +966,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>7</v>
@@ -962,15 +974,13 @@
       <c r="D32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25"/>
+      <c r="E32" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -999,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>14</v>
@@ -1016,7 +1026,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>14</v>
@@ -1028,11 +1038,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1061,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>7</v>
@@ -1070,14 +1078,12 @@
         <v>8</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25"/>
+        <v>35</v>
+      </c>
+    </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1089,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>3</v>
@@ -1106,16 +1112,16 @@
         <v>1</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>9</v>
+      <c r="E48" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1123,10 +1129,10 @@
         <v>2</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>8</v>
@@ -1140,10 +1146,10 @@
         <v>3</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>8</v>
@@ -1157,16 +1163,16 @@
         <v>4</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>9</v>
+      <c r="E51" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1174,10 +1180,10 @@
         <v>5</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>8</v>
@@ -1198,6 +1204,6 @@
     <mergeCell ref="A46:E46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>